--- a/problems/Problems.xlsx
+++ b/problems/Problems.xlsx
@@ -9,10 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9408"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9408" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId2"/>
+    <sheet name="String matching" sheetId="2" r:id="rId3"/>
+    <sheet name="Dynamic programming" sheetId="3" r:id="rId4"/>
+    <sheet name="Linkedlist" sheetId="4" r:id="rId5"/>
+    <sheet name="Divide and conquer" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
   <si>
     <t>0/1 knapsack</t>
   </si>
@@ -96,13 +101,85 @@
   </si>
   <si>
     <t>Palindromic tree</t>
+  </si>
+  <si>
+    <t>convert linked list to BSt etcs</t>
+  </si>
+  <si>
+    <t>KMP string matching</t>
+  </si>
+  <si>
+    <t>Finite automatas</t>
+  </si>
+  <si>
+    <t>Suffix tree (O(n)) ukonen</t>
+  </si>
+  <si>
+    <t>KMP</t>
+  </si>
+  <si>
+    <t>Finite Automata</t>
+  </si>
+  <si>
+    <t>Z algorithm</t>
+  </si>
+  <si>
+    <t>TRIE</t>
+  </si>
+  <si>
+    <t>Max area in histogram</t>
+  </si>
+  <si>
+    <t>Suffix tree applications</t>
+  </si>
+  <si>
+    <t>Longest increasing subsequence</t>
+  </si>
+  <si>
+    <t>Longest decreasing subsequence</t>
+  </si>
+  <si>
+    <t>Count no of nodes</t>
+  </si>
+  <si>
+    <t>Trivial</t>
+  </si>
+  <si>
+    <t>Delete complete linkedlist</t>
+  </si>
+  <si>
+    <t>reverse linkedlist</t>
+  </si>
+  <si>
+    <t>reverse linkedlist recursive</t>
+  </si>
+  <si>
+    <t>insert in doubly linked list</t>
+  </si>
+  <si>
+    <t>doubly linked list</t>
+  </si>
+  <si>
+    <t>doubly remove node</t>
+  </si>
+  <si>
+    <t>circular linked list insert/remove</t>
+  </si>
+  <si>
+    <t>Applications</t>
+  </si>
+  <si>
+    <t>closest pair of point in plane</t>
+  </si>
+  <si>
+    <t>Closest pair of points</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,8 +194,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -143,8 +234,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -167,11 +282,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -180,6 +306,15 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -460,10 +595,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -578,7 +713,7 @@
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="5"/>
+      <c r="B13" s="9"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
     </row>
@@ -610,7 +745,7 @@
       <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="5"/>
+      <c r="B17" s="10"/>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
     </row>
@@ -661,9 +796,220 @@
       <c r="B23" s="5"/>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="8" t="s">
+        <v>26</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="11"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="13"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="14"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="27.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="15"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="15"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="16"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="16"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="12"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>